--- a/Code/Results/Cases/Case_7_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_56/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9840912253347309</v>
+        <v>0.984091225334731</v>
       </c>
       <c r="D2">
         <v>1.006014274437154</v>
       </c>
       <c r="E2">
-        <v>0.9902598786364054</v>
+        <v>0.9902598786364053</v>
       </c>
       <c r="F2">
-        <v>0.9941026794807674</v>
+        <v>0.9941026794807672</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9938004024915943</v>
+        <v>0.9938004024915973</v>
       </c>
       <c r="D3">
-        <v>1.01356937683739</v>
+        <v>1.013569376837392</v>
       </c>
       <c r="E3">
-        <v>0.9986726698861531</v>
+        <v>0.998672669886156</v>
       </c>
       <c r="F3">
-        <v>1.003840567473818</v>
+        <v>1.00384056747382</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042966259351326</v>
+        <v>1.042966259351327</v>
       </c>
       <c r="J3">
-        <v>1.014461513528984</v>
+        <v>1.014461513528987</v>
       </c>
       <c r="K3">
-        <v>1.024031529765883</v>
+        <v>1.024031529765885</v>
       </c>
       <c r="L3">
-        <v>1.009322562368711</v>
+        <v>1.009322562368714</v>
       </c>
       <c r="M3">
-        <v>1.014424542249497</v>
+        <v>1.0144245422495</v>
       </c>
       <c r="N3">
-        <v>1.015902165238557</v>
+        <v>1.01590216523856</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,13 +503,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9998316510620314</v>
+        <v>0.999831651062031</v>
       </c>
       <c r="D4">
         <v>1.018265391331014</v>
       </c>
       <c r="E4">
-        <v>1.00389938772026</v>
+        <v>1.003899387720259</v>
       </c>
       <c r="F4">
         <v>1.009898123692493</v>
@@ -521,7 +521,7 @@
         <v>1.045199683354836</v>
       </c>
       <c r="J4">
-        <v>1.01923966420318</v>
+        <v>1.019239664203179</v>
       </c>
       <c r="K4">
         <v>1.028148256150004</v>
@@ -544,16 +544,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.002311521986951</v>
+        <v>1.002311521986952</v>
       </c>
       <c r="D5">
-        <v>1.020196763528677</v>
+        <v>1.020196763528678</v>
       </c>
       <c r="E5">
-        <v>1.006048528940509</v>
+        <v>1.00604852894051</v>
       </c>
       <c r="F5">
-        <v>1.0123907724903</v>
+        <v>1.012390772490301</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -562,19 +562,19 @@
         <v>1.046113902269389</v>
       </c>
       <c r="J5">
-        <v>1.021202550657471</v>
+        <v>1.021202550657472</v>
       </c>
       <c r="K5">
         <v>1.02983874573201</v>
       </c>
       <c r="L5">
-        <v>1.015851714899655</v>
+        <v>1.015851714899656</v>
       </c>
       <c r="M5">
         <v>1.022121008091634</v>
       </c>
       <c r="N5">
-        <v>1.022652775412974</v>
+        <v>1.022652775412975</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002724759441584</v>
+        <v>1.002724759441588</v>
       </c>
       <c r="D6">
-        <v>1.020518626198156</v>
+        <v>1.02051862619816</v>
       </c>
       <c r="E6">
-        <v>1.006406655657025</v>
+        <v>1.006406655657028</v>
       </c>
       <c r="F6">
-        <v>1.0128062526445</v>
+        <v>1.012806252644503</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046266001165676</v>
+        <v>1.046266001165678</v>
       </c>
       <c r="J6">
-        <v>1.021529534487627</v>
+        <v>1.021529534487631</v>
       </c>
       <c r="K6">
-        <v>1.030120311579924</v>
+        <v>1.030120311579927</v>
       </c>
       <c r="L6">
-        <v>1.016168308216314</v>
+        <v>1.016168308216317</v>
       </c>
       <c r="M6">
-        <v>1.022494681058739</v>
+        <v>1.022494681058743</v>
       </c>
       <c r="N6">
-        <v>1.022980223597675</v>
+        <v>1.022980223597679</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,10 +626,10 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9998650004186971</v>
+        <v>0.9998650004186974</v>
       </c>
       <c r="D7">
-        <v>1.018291362662241</v>
+        <v>1.018291362662242</v>
       </c>
       <c r="E7">
         <v>1.003928289285024</v>
@@ -647,13 +647,13 @@
         <v>1.019266068175248</v>
       </c>
       <c r="K7">
-        <v>1.028170998702604</v>
+        <v>1.028170998702605</v>
       </c>
       <c r="L7">
-        <v>1.013976547792914</v>
+        <v>1.013976547792915</v>
       </c>
       <c r="M7">
-        <v>1.019908694174136</v>
+        <v>1.019908694174137</v>
       </c>
       <c r="N7">
         <v>1.020713542903509</v>
@@ -667,31 +667,31 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9874273821523022</v>
+        <v>0.9874273821523015</v>
       </c>
       <c r="D8">
         <v>1.008609550617872</v>
       </c>
       <c r="E8">
-        <v>0.993150345837237</v>
+        <v>0.9931503458372365</v>
       </c>
       <c r="F8">
-        <v>0.9974468529619449</v>
+        <v>0.9974468529619448</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040592093682814</v>
+        <v>1.040592093682815</v>
       </c>
       <c r="J8">
-        <v>1.00940668350834</v>
+        <v>1.009406683508339</v>
       </c>
       <c r="K8">
         <v>1.019674149443541</v>
       </c>
       <c r="L8">
-        <v>1.004423906474716</v>
+        <v>1.004423906474715</v>
       </c>
       <c r="M8">
         <v>1.008661519676107</v>
@@ -708,16 +708,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9633513233404754</v>
+        <v>0.9633513233404761</v>
       </c>
       <c r="D9">
-        <v>0.9899014969615531</v>
+        <v>0.9899014969615534</v>
       </c>
       <c r="E9">
-        <v>0.9722999294350441</v>
+        <v>0.9722999294350446</v>
       </c>
       <c r="F9">
-        <v>0.9733540167098387</v>
+        <v>0.9733540167098389</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -726,19 +726,19 @@
         <v>1.031514337965002</v>
       </c>
       <c r="J9">
-        <v>0.9902680957782791</v>
+        <v>0.9902680957782797</v>
       </c>
       <c r="K9">
         <v>1.003160568111273</v>
       </c>
       <c r="L9">
-        <v>0.9858589989153158</v>
+        <v>0.9858589989153165</v>
       </c>
       <c r="M9">
-        <v>0.986894725121285</v>
+        <v>0.9868947251212853</v>
       </c>
       <c r="N9">
-        <v>0.9916743900596223</v>
+        <v>0.9916743900596232</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,16 +749,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9454514210555577</v>
+        <v>0.9454514210555591</v>
       </c>
       <c r="D10">
-        <v>0.9760320854369637</v>
+        <v>0.976032085436965</v>
       </c>
       <c r="E10">
-        <v>0.9568184003745733</v>
+        <v>0.9568184003745743</v>
       </c>
       <c r="F10">
-        <v>0.9554999579210395</v>
+        <v>0.955499957921041</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -767,19 +767,19 @@
         <v>1.024679564405589</v>
       </c>
       <c r="J10">
-        <v>0.9760098825232678</v>
+        <v>0.9760098825232691</v>
       </c>
       <c r="K10">
-        <v>0.9908480056874653</v>
+        <v>0.9908480056874666</v>
       </c>
       <c r="L10">
-        <v>0.9720136806037675</v>
+        <v>0.9720136806037684</v>
       </c>
       <c r="M10">
-        <v>0.9707220071144399</v>
+        <v>0.9707220071144415</v>
       </c>
       <c r="N10">
-        <v>0.977395928506349</v>
+        <v>0.9773959285063506</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9371464526266519</v>
+        <v>0.9371464526266494</v>
       </c>
       <c r="D11">
-        <v>0.9696111915971939</v>
+        <v>0.9696111915971916</v>
       </c>
       <c r="E11">
-        <v>0.9496435597559653</v>
+        <v>0.9496435597559632</v>
       </c>
       <c r="F11">
-        <v>0.947232123313454</v>
+        <v>0.9472321233134516</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021490028790963</v>
+        <v>1.021490028790962</v>
       </c>
       <c r="J11">
-        <v>0.9693897552675123</v>
+        <v>0.9693897552675099</v>
       </c>
       <c r="K11">
-        <v>0.9851298891486894</v>
+        <v>0.9851298891486874</v>
       </c>
       <c r="L11">
-        <v>0.9655819917405611</v>
+        <v>0.9655819917405589</v>
       </c>
       <c r="M11">
-        <v>0.9632228362140283</v>
+        <v>0.9632228362140259</v>
       </c>
       <c r="N11">
-        <v>0.9707663999105512</v>
+        <v>0.9707663999105488</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,16 +831,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9339658091903078</v>
+        <v>0.9339658091903085</v>
       </c>
       <c r="D12">
-        <v>0.9671547106265522</v>
+        <v>0.9671547106265531</v>
       </c>
       <c r="E12">
-        <v>0.9468972977622223</v>
+        <v>0.9468972977622224</v>
       </c>
       <c r="F12">
-        <v>0.9440682907287692</v>
+        <v>0.94406829072877</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -849,19 +849,19 @@
         <v>1.020265938170425</v>
       </c>
       <c r="J12">
-        <v>0.966853886537536</v>
+        <v>0.9668538865375368</v>
       </c>
       <c r="K12">
-        <v>0.9829394392058833</v>
+        <v>0.9829394392058841</v>
       </c>
       <c r="L12">
-        <v>0.9631178371516147</v>
+        <v>0.9631178371516149</v>
       </c>
       <c r="M12">
-        <v>0.9603516749537003</v>
+        <v>0.9603516749537012</v>
       </c>
       <c r="N12">
-        <v>0.9682269299561101</v>
+        <v>0.9682269299561106</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9346526359826473</v>
+        <v>0.9346526359826457</v>
       </c>
       <c r="D13">
-        <v>0.9676850362881606</v>
+        <v>0.9676850362881591</v>
       </c>
       <c r="E13">
-        <v>0.9474902475637974</v>
+        <v>0.9474902475637959</v>
       </c>
       <c r="F13">
-        <v>0.9447513670470926</v>
+        <v>0.944751367047091</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020530379317884</v>
+        <v>1.020530379317883</v>
       </c>
       <c r="J13">
-        <v>0.9674014986732867</v>
+        <v>0.9674014986732852</v>
       </c>
       <c r="K13">
-        <v>0.9834124620053241</v>
+        <v>0.9834124620053226</v>
       </c>
       <c r="L13">
-        <v>0.9636499834869501</v>
+        <v>0.9636499834869486</v>
       </c>
       <c r="M13">
-        <v>0.9609716289697919</v>
+        <v>0.9609716289697905</v>
       </c>
       <c r="N13">
-        <v>0.9687753197639056</v>
+        <v>0.9687753197639042</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -919,7 +919,7 @@
         <v>0.9694096558435499</v>
       </c>
       <c r="E14">
-        <v>0.949418277934743</v>
+        <v>0.9494182779347429</v>
       </c>
       <c r="F14">
         <v>0.9469725726621218</v>
@@ -937,13 +937,13 @@
         <v>0.9849502373701673</v>
       </c>
       <c r="L14">
-        <v>0.9653798995731622</v>
+        <v>0.9653798995731619</v>
       </c>
       <c r="M14">
-        <v>0.9629873249607482</v>
+        <v>0.9629873249607483</v>
       </c>
       <c r="N14">
-        <v>0.9705581213466579</v>
+        <v>0.9705581213466578</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,16 +954,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9382482466890435</v>
+        <v>0.9382482466890428</v>
       </c>
       <c r="D15">
-        <v>0.9704624743193039</v>
+        <v>0.9704624743193034</v>
       </c>
       <c r="E15">
-        <v>0.9505950899539611</v>
+        <v>0.9505950899539601</v>
       </c>
       <c r="F15">
-        <v>0.9483284264396166</v>
+        <v>0.9483284264396163</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -972,19 +972,19 @@
         <v>1.021913746275074</v>
       </c>
       <c r="J15">
-        <v>0.970268142042421</v>
+        <v>0.9702681420424205</v>
       </c>
       <c r="K15">
-        <v>0.9858886188764835</v>
+        <v>0.9858886188764829</v>
       </c>
       <c r="L15">
-        <v>0.9664354798141367</v>
+        <v>0.9664354798141359</v>
       </c>
       <c r="M15">
-        <v>0.964217541135457</v>
+        <v>0.9642175411354568</v>
       </c>
       <c r="N15">
-        <v>0.9716460340954325</v>
+        <v>0.9716460340954322</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,16 +995,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9459899086501453</v>
+        <v>0.9459899086501448</v>
       </c>
       <c r="D16">
-        <v>0.9764487373360436</v>
+        <v>0.976448737336043</v>
       </c>
       <c r="E16">
-        <v>0.9572838043450158</v>
+        <v>0.9572838043450155</v>
       </c>
       <c r="F16">
-        <v>0.9560363788354823</v>
+        <v>0.9560363788354818</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1013,19 +1013,19 @@
         <v>1.024886010653571</v>
       </c>
       <c r="J16">
-        <v>0.9764390466374976</v>
+        <v>0.976439046637497</v>
       </c>
       <c r="K16">
-        <v>0.9912186754128252</v>
+        <v>0.9912186754128247</v>
       </c>
       <c r="L16">
-        <v>0.972430563625735</v>
+        <v>0.9724305636257345</v>
       </c>
       <c r="M16">
-        <v>0.9712083548963402</v>
+        <v>0.9712083548963396</v>
       </c>
       <c r="N16">
-        <v>0.9778257020828468</v>
+        <v>0.9778257020828465</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,16 +1036,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9506896387216895</v>
+        <v>0.9506896387216904</v>
       </c>
       <c r="D17">
-        <v>0.9800867409570644</v>
+        <v>0.9800867409570654</v>
       </c>
       <c r="E17">
-        <v>0.9613466195181818</v>
+        <v>0.961346619518183</v>
       </c>
       <c r="F17">
-        <v>0.9607198574277002</v>
+        <v>0.9607198574277012</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1054,19 +1054,19 @@
         <v>1.026685771123444</v>
       </c>
       <c r="J17">
-        <v>0.9801841300561743</v>
+        <v>0.9801841300561751</v>
       </c>
       <c r="K17">
-        <v>0.9944531690747441</v>
+        <v>0.9944531690747449</v>
       </c>
       <c r="L17">
-        <v>0.9760681147137217</v>
+        <v>0.9760681147137227</v>
       </c>
       <c r="M17">
-        <v>0.9754535417510184</v>
+        <v>0.9754535417510193</v>
       </c>
       <c r="N17">
-        <v>0.9815761039495452</v>
+        <v>0.9815761039495461</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9533784156164115</v>
+        <v>0.9533784156164098</v>
       </c>
       <c r="D18">
-        <v>0.9821693560931182</v>
+        <v>0.9821693560931166</v>
       </c>
       <c r="E18">
-        <v>0.9636717313985195</v>
+        <v>0.9636717313985179</v>
       </c>
       <c r="F18">
-        <v>0.9634007894892518</v>
+        <v>0.9634007894892503</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027713718183757</v>
+        <v>1.027713718183756</v>
       </c>
       <c r="J18">
-        <v>0.9823262818947415</v>
+        <v>0.9823262818947396</v>
       </c>
       <c r="K18">
-        <v>0.99630313530725</v>
+        <v>0.9963031353072485</v>
       </c>
       <c r="L18">
-        <v>0.9781484548914987</v>
+        <v>0.9781484548914972</v>
       </c>
       <c r="M18">
-        <v>0.9778826642127834</v>
+        <v>0.977882664212782</v>
       </c>
       <c r="N18">
-        <v>0.9837212978894311</v>
+        <v>0.9837212978894297</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.954286652853138</v>
+        <v>0.9542866528531367</v>
       </c>
       <c r="D19">
-        <v>0.9828730409915513</v>
+        <v>0.9828730409915499</v>
       </c>
       <c r="E19">
-        <v>0.9644572403114468</v>
+        <v>0.9644572403114456</v>
       </c>
       <c r="F19">
-        <v>0.9643066178875577</v>
+        <v>0.9643066178875561</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028060649476358</v>
+        <v>1.028060649476357</v>
       </c>
       <c r="J19">
-        <v>0.98304979168524</v>
+        <v>0.9830497916852389</v>
       </c>
       <c r="K19">
-        <v>0.9969279343390105</v>
+        <v>0.9969279343390094</v>
       </c>
       <c r="L19">
-        <v>0.9788510356883978</v>
+        <v>0.9788510356883967</v>
       </c>
       <c r="M19">
-        <v>0.9787032548741419</v>
+        <v>0.9787032548741403</v>
       </c>
       <c r="N19">
-        <v>0.98444583514682</v>
+        <v>0.984445835146819</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,16 +1159,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9501909141172626</v>
+        <v>0.9501909141172619</v>
       </c>
       <c r="D20">
-        <v>0.9797005493249541</v>
+        <v>0.9797005493249534</v>
       </c>
       <c r="E20">
-        <v>0.9609154053780146</v>
+        <v>0.9609154053780142</v>
       </c>
       <c r="F20">
-        <v>0.9602227046840414</v>
+        <v>0.9602227046840401</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1177,19 +1177,19 @@
         <v>1.026494962488147</v>
       </c>
       <c r="J20">
-        <v>0.9797867567541513</v>
+        <v>0.9797867567541506</v>
       </c>
       <c r="K20">
-        <v>0.9941099852713038</v>
+        <v>0.9941099852713031</v>
       </c>
       <c r="L20">
-        <v>0.9756821827270981</v>
+        <v>0.9756821827270975</v>
       </c>
       <c r="M20">
-        <v>0.9750030096643277</v>
+        <v>0.975003009664327</v>
       </c>
       <c r="N20">
-        <v>0.981178166331854</v>
+        <v>0.9811781663318533</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.93623079105958</v>
+        <v>0.9362307910595823</v>
       </c>
       <c r="D21">
-        <v>0.9689038543844479</v>
+        <v>0.9689038543844497</v>
       </c>
       <c r="E21">
-        <v>0.9488528579366439</v>
+        <v>0.9488528579366462</v>
       </c>
       <c r="F21">
-        <v>0.9463211554534936</v>
+        <v>0.9463211554534957</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021137767200687</v>
+        <v>1.021137767200688</v>
       </c>
       <c r="J21">
-        <v>0.9686597374238481</v>
+        <v>0.9686597374238504</v>
       </c>
       <c r="K21">
-        <v>0.9844993129475686</v>
+        <v>0.9844993129475705</v>
       </c>
       <c r="L21">
-        <v>0.964872643935742</v>
+        <v>0.9648726439357442</v>
       </c>
       <c r="M21">
-        <v>0.962396218044769</v>
+        <v>0.9623962180447709</v>
       </c>
       <c r="N21">
-        <v>0.970035345357815</v>
+        <v>0.9700353453578171</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,16 +1241,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9268907239386251</v>
+        <v>0.9268907239386245</v>
       </c>
       <c r="D22">
-        <v>0.9616959148886577</v>
+        <v>0.9616959148886569</v>
       </c>
       <c r="E22">
-        <v>0.940791820362693</v>
+        <v>0.9407918203626925</v>
       </c>
       <c r="F22">
-        <v>0.9370356696592266</v>
+        <v>0.9370356696592256</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1259,19 +1259,19 @@
         <v>1.017538567958326</v>
       </c>
       <c r="J22">
-        <v>0.9612124505007585</v>
+        <v>0.9612124505007577</v>
       </c>
       <c r="K22">
-        <v>0.9780663877784824</v>
+        <v>0.9780663877784814</v>
       </c>
       <c r="L22">
-        <v>0.9576351057910206</v>
+        <v>0.9576351057910203</v>
       </c>
       <c r="M22">
-        <v>0.9539669091517233</v>
+        <v>0.9539669091517223</v>
       </c>
       <c r="N22">
-        <v>0.9625774824330788</v>
+        <v>0.9625774824330779</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9319003937499534</v>
+        <v>0.9319003937499512</v>
       </c>
       <c r="D23">
-        <v>0.965560346921168</v>
+        <v>0.965560346921166</v>
       </c>
       <c r="E23">
-        <v>0.9451144484838646</v>
+        <v>0.9451144484838624</v>
       </c>
       <c r="F23">
-        <v>0.9420145515065906</v>
+        <v>0.9420145515065891</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.019470357647556</v>
+        <v>1.019470357647555</v>
       </c>
       <c r="J23">
-        <v>0.9652070645980007</v>
+        <v>0.9652070645979987</v>
       </c>
       <c r="K23">
-        <v>0.9815169224812589</v>
+        <v>0.9815169224812571</v>
       </c>
       <c r="L23">
-        <v>0.9615174588141642</v>
+        <v>0.9615174588141621</v>
       </c>
       <c r="M23">
-        <v>0.958487505635551</v>
+        <v>0.9584875056355496</v>
       </c>
       <c r="N23">
-        <v>0.9665777693405279</v>
+        <v>0.9665777693405255</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,16 +1323,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9504164276063506</v>
+        <v>0.9504164276063503</v>
       </c>
       <c r="D24">
-        <v>0.9798751737013935</v>
+        <v>0.979875173701393</v>
       </c>
       <c r="E24">
-        <v>0.9611103897333072</v>
+        <v>0.961110389733307</v>
       </c>
       <c r="F24">
-        <v>0.9604475028971029</v>
+        <v>0.9604475028971021</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1341,19 +1341,19 @@
         <v>1.026581247783753</v>
       </c>
       <c r="J24">
-        <v>0.9799664426183869</v>
+        <v>0.9799664426183865</v>
       </c>
       <c r="K24">
-        <v>0.994265167931582</v>
+        <v>0.9942651679315817</v>
       </c>
       <c r="L24">
-        <v>0.9758566959605114</v>
+        <v>0.9758566959605112</v>
       </c>
       <c r="M24">
-        <v>0.9752067302239841</v>
+        <v>0.9752067302239839</v>
       </c>
       <c r="N24">
-        <v>0.9813581073706271</v>
+        <v>0.9813581073706265</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,16 +1364,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9698681190941445</v>
+        <v>0.9698681190941448</v>
       </c>
       <c r="D25">
-        <v>0.9949599882374197</v>
+        <v>0.9949599882374198</v>
       </c>
       <c r="E25">
-        <v>0.977941140850121</v>
+        <v>0.9779411408501208</v>
       </c>
       <c r="F25">
-        <v>0.9798661612120035</v>
+        <v>0.9798661612120034</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1382,7 +1382,7 @@
         <v>1.03398632354799</v>
       </c>
       <c r="J25">
-        <v>0.9954539046887784</v>
+        <v>0.9954539046887788</v>
       </c>
       <c r="K25">
         <v>1.007637051013383</v>
@@ -1391,10 +1391,10 @@
         <v>0.9908918246731481</v>
       </c>
       <c r="M25">
-        <v>0.9927852826874038</v>
+        <v>0.9927852826874037</v>
       </c>
       <c r="N25">
-        <v>0.9968675634135952</v>
+        <v>0.9968675634135956</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_56/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.984091225334731</v>
+        <v>0.9916202054519134</v>
       </c>
       <c r="D2">
-        <v>1.006014274437154</v>
+        <v>1.011905899218138</v>
       </c>
       <c r="E2">
-        <v>0.9902598786364053</v>
+        <v>0.9991046960875285</v>
       </c>
       <c r="F2">
-        <v>0.9941026794807672</v>
+        <v>1.021984679308444</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039343923125571</v>
+        <v>1.043612748395586</v>
       </c>
       <c r="J2">
-        <v>1.00675840495256</v>
+        <v>1.014054476539788</v>
       </c>
       <c r="K2">
-        <v>1.01739045196991</v>
+        <v>1.023201820909684</v>
       </c>
       <c r="L2">
-        <v>1.001856597622294</v>
+        <v>1.010576518023669</v>
       </c>
       <c r="M2">
-        <v>1.00564478939668</v>
+        <v>1.033145998935426</v>
       </c>
       <c r="N2">
-        <v>1.008188117364395</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.008326787346352</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.03480520245177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9938004024915973</v>
+        <v>0.9966406001566593</v>
       </c>
       <c r="D3">
-        <v>1.013569376837392</v>
+        <v>1.015481819071752</v>
       </c>
       <c r="E3">
-        <v>0.998672669886156</v>
+        <v>1.003148344235788</v>
       </c>
       <c r="F3">
-        <v>1.00384056747382</v>
+        <v>1.025284648732162</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042966259351327</v>
+        <v>1.044989052884441</v>
       </c>
       <c r="J3">
-        <v>1.014461513528987</v>
+        <v>1.017223266638899</v>
       </c>
       <c r="K3">
-        <v>1.024031529765885</v>
+        <v>1.025920366507146</v>
       </c>
       <c r="L3">
-        <v>1.009322562368714</v>
+        <v>1.013741099285251</v>
       </c>
       <c r="M3">
-        <v>1.0144245422495</v>
+        <v>1.035603914905914</v>
       </c>
       <c r="N3">
-        <v>1.01590216523856</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.009419821836324</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.036750491000091</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.999831651062031</v>
+        <v>0.9998146659929968</v>
       </c>
       <c r="D4">
-        <v>1.018265391331014</v>
+        <v>1.01774337662</v>
       </c>
       <c r="E4">
-        <v>1.003899387720259</v>
+        <v>1.005710933394051</v>
       </c>
       <c r="F4">
-        <v>1.009898123692493</v>
+        <v>1.027380280098311</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045199683354836</v>
+        <v>1.045844551423319</v>
       </c>
       <c r="J4">
-        <v>1.019239664203179</v>
+        <v>1.019223113821816</v>
       </c>
       <c r="K4">
-        <v>1.028148256150004</v>
+        <v>1.027632269309209</v>
       </c>
       <c r="L4">
-        <v>1.013950977291871</v>
+        <v>1.015740917699924</v>
       </c>
       <c r="M4">
-        <v>1.019878537085546</v>
+        <v>1.037159109233015</v>
       </c>
       <c r="N4">
-        <v>1.020687101434771</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.010109043049526</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.037981328420114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.002311521986952</v>
+        <v>1.001131897718072</v>
       </c>
       <c r="D5">
-        <v>1.020196763528678</v>
+        <v>1.018682019962256</v>
       </c>
       <c r="E5">
-        <v>1.00604852894051</v>
+        <v>1.006775801488857</v>
       </c>
       <c r="F5">
-        <v>1.012390772490301</v>
+        <v>1.028252103450841</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046113902269389</v>
+        <v>1.046196002517042</v>
       </c>
       <c r="J5">
-        <v>1.021202550657472</v>
+        <v>1.020052141421363</v>
       </c>
       <c r="K5">
-        <v>1.02983874573201</v>
+        <v>1.028340997366963</v>
       </c>
       <c r="L5">
-        <v>1.015851714899656</v>
+        <v>1.016570564500893</v>
       </c>
       <c r="M5">
-        <v>1.022121008091634</v>
+        <v>1.037804739517296</v>
       </c>
       <c r="N5">
-        <v>1.022652775412975</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.010394605532537</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.038492303112905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002724759441588</v>
+        <v>1.001352080401379</v>
       </c>
       <c r="D6">
-        <v>1.02051862619816</v>
+        <v>1.018838923240857</v>
       </c>
       <c r="E6">
-        <v>1.006406655657028</v>
+        <v>1.006953880825643</v>
       </c>
       <c r="F6">
-        <v>1.012806252644503</v>
+        <v>1.028397957019652</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046266001165678</v>
+        <v>1.046254537241848</v>
       </c>
       <c r="J6">
-        <v>1.021529534487631</v>
+        <v>1.020190663418126</v>
       </c>
       <c r="K6">
-        <v>1.030120311579927</v>
+        <v>1.028459362964228</v>
       </c>
       <c r="L6">
-        <v>1.016168308216317</v>
+        <v>1.01670922710076</v>
       </c>
       <c r="M6">
-        <v>1.022494681058743</v>
+        <v>1.037912671795882</v>
       </c>
       <c r="N6">
-        <v>1.022980223597679</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.010442311011013</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.038577724508461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9998650004186974</v>
+        <v>0.9998323334037519</v>
       </c>
       <c r="D7">
-        <v>1.018291362662242</v>
+        <v>1.017755965902064</v>
       </c>
       <c r="E7">
-        <v>1.003928289285024</v>
+        <v>1.005725210514413</v>
       </c>
       <c r="F7">
-        <v>1.009931637198074</v>
+        <v>1.0273919651076</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045211994154068</v>
+        <v>1.045849279503605</v>
       </c>
       <c r="J7">
-        <v>1.019266068175248</v>
+        <v>1.019234236821865</v>
       </c>
       <c r="K7">
-        <v>1.028170998702605</v>
+        <v>1.02764178198218</v>
       </c>
       <c r="L7">
-        <v>1.013976547792915</v>
+        <v>1.015752046510788</v>
       </c>
       <c r="M7">
-        <v>1.019908694174137</v>
+        <v>1.037167767953079</v>
       </c>
       <c r="N7">
-        <v>1.020713542903509</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.010112875025845</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.037988181240517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9874273821523015</v>
+        <v>0.9933327126903989</v>
       </c>
       <c r="D8">
-        <v>1.008609550617872</v>
+        <v>1.013125478873679</v>
       </c>
       <c r="E8">
-        <v>0.9931503458372365</v>
+        <v>1.000482718534891</v>
       </c>
       <c r="F8">
-        <v>0.9974468529619448</v>
+        <v>1.023108329260249</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040592093682815</v>
+        <v>1.044085256992081</v>
       </c>
       <c r="J8">
-        <v>1.009406683508339</v>
+        <v>1.01513610254327</v>
       </c>
       <c r="K8">
-        <v>1.019674149443541</v>
+        <v>1.02413054461725</v>
       </c>
       <c r="L8">
-        <v>1.004423906474715</v>
+        <v>1.011656155059087</v>
       </c>
       <c r="M8">
-        <v>1.008661519676107</v>
+        <v>1.033984123293949</v>
       </c>
       <c r="N8">
-        <v>1.010840156779486</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.008700002889812</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.035468526671123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9633513233404761</v>
+        <v>0.9812765136809479</v>
       </c>
       <c r="D9">
-        <v>0.9899014969615534</v>
+        <v>1.004545981873798</v>
       </c>
       <c r="E9">
-        <v>0.9722999294350446</v>
+        <v>0.9908095753032454</v>
       </c>
       <c r="F9">
-        <v>0.9733540167098389</v>
+        <v>1.015241094592909</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031514337965002</v>
+        <v>1.04069898701871</v>
       </c>
       <c r="J9">
-        <v>0.9902680957782797</v>
+        <v>1.007508224158239</v>
       </c>
       <c r="K9">
-        <v>1.003160568111273</v>
+        <v>1.017565731769701</v>
       </c>
       <c r="L9">
-        <v>0.9858589989153165</v>
+        <v>1.004053541648521</v>
       </c>
       <c r="M9">
-        <v>0.9868947251212853</v>
+        <v>1.028091642342946</v>
       </c>
       <c r="N9">
-        <v>0.9916743900596232</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.006065716571765</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.030804974768925</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9454514210555591</v>
+        <v>0.9728870880361737</v>
       </c>
       <c r="D10">
-        <v>0.976032085436965</v>
+        <v>0.9985957342951435</v>
       </c>
       <c r="E10">
-        <v>0.9568184003745743</v>
+        <v>0.9841308481510571</v>
       </c>
       <c r="F10">
-        <v>0.955499957921041</v>
+        <v>1.009997465400414</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024679564405589</v>
+        <v>1.038298448520369</v>
       </c>
       <c r="J10">
-        <v>0.9760098825232691</v>
+        <v>1.002219310131699</v>
       </c>
       <c r="K10">
-        <v>0.9908480056874666</v>
+        <v>1.012990389565929</v>
       </c>
       <c r="L10">
-        <v>0.9720136806037684</v>
+        <v>0.998792660724666</v>
       </c>
       <c r="M10">
-        <v>0.9707220071144415</v>
+        <v>1.024188528564266</v>
       </c>
       <c r="N10">
-        <v>0.9773959285063506</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.004251998811031</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.027767988415952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9371464526266494</v>
+        <v>0.9699340245912336</v>
       </c>
       <c r="D11">
-        <v>0.9696111915971916</v>
+        <v>0.9965614336337073</v>
       </c>
       <c r="E11">
-        <v>0.9496435597559632</v>
+        <v>0.9819039113713207</v>
       </c>
       <c r="F11">
-        <v>0.9472321233134516</v>
+        <v>1.009528669779256</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021490028790962</v>
+        <v>1.037654482062478</v>
       </c>
       <c r="J11">
-        <v>0.9693897552675099</v>
+        <v>1.000613371851658</v>
       </c>
       <c r="K11">
-        <v>0.9851298891486874</v>
+        <v>1.011548488929056</v>
       </c>
       <c r="L11">
-        <v>0.9655819917405589</v>
+        <v>0.9971753571860857</v>
       </c>
       <c r="M11">
-        <v>0.9632228362140259</v>
+        <v>1.024273099091766</v>
       </c>
       <c r="N11">
-        <v>0.9707663999105488</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.003832414927523</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.028276323588979</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9339658091903085</v>
+        <v>0.9690683260912948</v>
       </c>
       <c r="D12">
-        <v>0.9671547106265531</v>
+        <v>0.995979759819842</v>
       </c>
       <c r="E12">
-        <v>0.9468972977622224</v>
+        <v>0.9813042665298404</v>
       </c>
       <c r="F12">
-        <v>0.94406829072877</v>
+        <v>1.00997038721602</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020265938170425</v>
+        <v>1.037544790970963</v>
       </c>
       <c r="J12">
-        <v>0.9668538865375368</v>
+        <v>1.000242015435783</v>
       </c>
       <c r="K12">
-        <v>0.9829394392058841</v>
+        <v>1.011184388728539</v>
       </c>
       <c r="L12">
-        <v>0.9631178371516149</v>
+        <v>0.9967986317126527</v>
       </c>
       <c r="M12">
-        <v>0.9603516749537012</v>
+        <v>1.024909031181852</v>
       </c>
       <c r="N12">
-        <v>0.9682269299561106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.003810862992579</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.029109035811997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9346526359826457</v>
+        <v>0.9697584811432849</v>
       </c>
       <c r="D13">
-        <v>0.9676850362881591</v>
+        <v>0.9964825674782488</v>
       </c>
       <c r="E13">
-        <v>0.9474902475637959</v>
+        <v>0.9819190109791723</v>
       </c>
       <c r="F13">
-        <v>0.944751367047091</v>
+        <v>1.011164244043538</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020530379317883</v>
+        <v>1.037847744144784</v>
       </c>
       <c r="J13">
-        <v>0.9674014986732852</v>
+        <v>1.000802712872067</v>
       </c>
       <c r="K13">
-        <v>0.9834124620053226</v>
+        <v>1.011633206050202</v>
       </c>
       <c r="L13">
-        <v>0.9636499834869486</v>
+        <v>0.9973557808534619</v>
       </c>
       <c r="M13">
-        <v>0.9609716289697905</v>
+        <v>1.026037308950787</v>
       </c>
       <c r="N13">
-        <v>0.9687753197639042</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.004095577164374</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.030280136411082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9368855767618595</v>
+        <v>0.970933223639196</v>
       </c>
       <c r="D14">
-        <v>0.9694096558435499</v>
+        <v>0.9973151736614523</v>
       </c>
       <c r="E14">
-        <v>0.9494182779347429</v>
+        <v>0.9828875320327619</v>
       </c>
       <c r="F14">
-        <v>0.9469725726621218</v>
+        <v>1.012322391518538</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021389679438118</v>
+        <v>1.038239213537158</v>
       </c>
       <c r="J14">
-        <v>0.9691817720636243</v>
+        <v>1.001604746395796</v>
       </c>
       <c r="K14">
-        <v>0.9849502373701673</v>
+        <v>1.012304935702662</v>
       </c>
       <c r="L14">
-        <v>0.9653798995731619</v>
+        <v>0.99815694791016</v>
       </c>
       <c r="M14">
-        <v>0.9629873249607483</v>
+        <v>1.027032276951564</v>
       </c>
       <c r="N14">
-        <v>0.9705581213466578</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.004428265145201</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.031241141494709</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9382482466890428</v>
+        <v>0.9715695757914032</v>
       </c>
       <c r="D15">
-        <v>0.9704624743193034</v>
+        <v>0.9977649099648359</v>
       </c>
       <c r="E15">
-        <v>0.9505950899539601</v>
+        <v>0.9833988503899252</v>
       </c>
       <c r="F15">
-        <v>0.9483284264396163</v>
+        <v>1.012803109941341</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021913746275074</v>
+        <v>1.038432655521936</v>
       </c>
       <c r="J15">
-        <v>0.9702681420424205</v>
+        <v>1.002016282804098</v>
       </c>
       <c r="K15">
-        <v>0.9858886188764829</v>
+        <v>1.012656937475739</v>
       </c>
       <c r="L15">
-        <v>0.9664354798141359</v>
+        <v>0.9985670692299486</v>
       </c>
       <c r="M15">
-        <v>0.9642175411354568</v>
+        <v>1.027416941608151</v>
       </c>
       <c r="N15">
-        <v>0.9716460340954322</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.004581129106607</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.031582938965682</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9459899086501448</v>
+        <v>0.9749966609020324</v>
       </c>
       <c r="D16">
-        <v>0.976448737336043</v>
+        <v>1.000193392150964</v>
       </c>
       <c r="E16">
-        <v>0.9572838043450155</v>
+        <v>0.9861044152332187</v>
       </c>
       <c r="F16">
-        <v>0.9560363788354818</v>
+        <v>1.014844247206155</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024886010653571</v>
+        <v>1.039412094653297</v>
       </c>
       <c r="J16">
-        <v>0.976439046637497</v>
+        <v>1.004158572205931</v>
       </c>
       <c r="K16">
-        <v>0.9912186754128247</v>
+        <v>1.014522488240036</v>
       </c>
       <c r="L16">
-        <v>0.9724305636257345</v>
+        <v>1.000691743837712</v>
       </c>
       <c r="M16">
-        <v>0.9712083548963396</v>
+        <v>1.028914652390482</v>
       </c>
       <c r="N16">
-        <v>0.9778257020828465</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.005296007886895</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.032727774224823</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9506896387216904</v>
+        <v>0.9770145021033507</v>
       </c>
       <c r="D17">
-        <v>0.9800867409570654</v>
+        <v>1.001624420657172</v>
       </c>
       <c r="E17">
-        <v>0.961346619518183</v>
+        <v>0.9876787208477706</v>
       </c>
       <c r="F17">
-        <v>0.9607198574277012</v>
+        <v>1.015802054978802</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026685771123444</v>
+        <v>1.039957407018939</v>
       </c>
       <c r="J17">
-        <v>0.9801841300561751</v>
+        <v>1.005385564082285</v>
       </c>
       <c r="K17">
-        <v>0.9944531690747449</v>
+        <v>1.01560402771777</v>
       </c>
       <c r="L17">
-        <v>0.9760681147137227</v>
+        <v>1.001906291664019</v>
       </c>
       <c r="M17">
-        <v>0.9754535417510193</v>
+        <v>1.029538575942272</v>
       </c>
       <c r="N17">
-        <v>0.9815761039495461</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.005671524082994</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.033091110647365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9533784156164098</v>
+        <v>0.9779777830982257</v>
       </c>
       <c r="D18">
-        <v>0.9821693560931166</v>
+        <v>1.002299883237533</v>
       </c>
       <c r="E18">
-        <v>0.9636717313985179</v>
+        <v>0.9883929283554467</v>
       </c>
       <c r="F18">
-        <v>0.9634007894892503</v>
+        <v>1.015801237499747</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027713718183756</v>
+        <v>1.04015701983784</v>
       </c>
       <c r="J18">
-        <v>0.9823262818947396</v>
+        <v>1.005899379370078</v>
       </c>
       <c r="K18">
-        <v>0.9963031353072485</v>
+        <v>1.016079035440602</v>
       </c>
       <c r="L18">
-        <v>0.9781484548914972</v>
+        <v>1.002415068626671</v>
       </c>
       <c r="M18">
-        <v>0.977882664212782</v>
+        <v>1.029352683430988</v>
       </c>
       <c r="N18">
-        <v>0.9837212978894297</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.005772578180394</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.032704781595528</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9542866528531367</v>
+        <v>0.9779308452161548</v>
       </c>
       <c r="D19">
-        <v>0.9828730409915499</v>
+        <v>1.002241295361325</v>
       </c>
       <c r="E19">
-        <v>0.9644572403114456</v>
+        <v>0.9882799686239692</v>
       </c>
       <c r="F19">
-        <v>0.9643066178875561</v>
+        <v>1.014853766057796</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028060649476357</v>
+        <v>1.040013874073435</v>
       </c>
       <c r="J19">
-        <v>0.9830497916852389</v>
+        <v>1.005714654793241</v>
       </c>
       <c r="K19">
-        <v>0.9969279343390094</v>
+        <v>1.015957116584729</v>
       </c>
       <c r="L19">
-        <v>0.9788510356883967</v>
+        <v>1.00223847058489</v>
       </c>
       <c r="M19">
-        <v>0.9787032548741403</v>
+        <v>1.02835774133737</v>
       </c>
       <c r="N19">
-        <v>0.984445835146819</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.005610928610924</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.031589768972855</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9501909141172619</v>
+        <v>0.9750725243092467</v>
       </c>
       <c r="D20">
-        <v>0.9797005493249534</v>
+        <v>1.000144991152008</v>
       </c>
       <c r="E20">
-        <v>0.9609154053780142</v>
+        <v>0.9858681779601496</v>
       </c>
       <c r="F20">
-        <v>0.9602227046840401</v>
+        <v>1.011367029031092</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026494962488147</v>
+        <v>1.03893010471016</v>
       </c>
       <c r="J20">
-        <v>0.9797867567541506</v>
+        <v>1.003599368723909</v>
       </c>
       <c r="K20">
-        <v>0.9941099852713031</v>
+        <v>1.014185291544273</v>
       </c>
       <c r="L20">
-        <v>0.9756821827270975</v>
+        <v>1.000164154896393</v>
       </c>
       <c r="M20">
-        <v>0.975003009664327</v>
+        <v>1.025212904961698</v>
       </c>
       <c r="N20">
-        <v>0.9811781663318533</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.004726044705848</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.028567998357779</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9362307910595823</v>
+        <v>0.9685741980054362</v>
       </c>
       <c r="D21">
-        <v>0.9689038543844497</v>
+        <v>0.9955295884471073</v>
       </c>
       <c r="E21">
-        <v>0.9488528579366462</v>
+        <v>0.9806879439182242</v>
       </c>
       <c r="F21">
-        <v>0.9463211554534957</v>
+        <v>1.007059686260298</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021137767200688</v>
+        <v>1.037003251559471</v>
       </c>
       <c r="J21">
-        <v>0.9686597374238504</v>
+        <v>0.9994472225793367</v>
       </c>
       <c r="K21">
-        <v>0.9844993129475705</v>
+        <v>1.010596151994992</v>
       </c>
       <c r="L21">
-        <v>0.9648726439357442</v>
+        <v>0.9960446645057086</v>
       </c>
       <c r="M21">
-        <v>0.9623962180447709</v>
+        <v>1.021908533796732</v>
       </c>
       <c r="N21">
-        <v>0.9700353453578171</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.003277401194507</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.025911374601563</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9268907239386245</v>
+        <v>0.9644273221956611</v>
       </c>
       <c r="D22">
-        <v>0.9616959148886569</v>
+        <v>0.9925927873778254</v>
       </c>
       <c r="E22">
-        <v>0.9407918203626925</v>
+        <v>0.9773988679330972</v>
       </c>
       <c r="F22">
-        <v>0.9370356696592256</v>
+        <v>1.004412271182093</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017538567958326</v>
+        <v>1.035773732591057</v>
       </c>
       <c r="J22">
-        <v>0.9612124505007577</v>
+        <v>0.9968123159712794</v>
       </c>
       <c r="K22">
-        <v>0.9780663877784814</v>
+        <v>1.008312424732213</v>
       </c>
       <c r="L22">
-        <v>0.9576351057910203</v>
+        <v>0.9934317589777584</v>
       </c>
       <c r="M22">
-        <v>0.9539669091517223</v>
+        <v>1.019896823953903</v>
       </c>
       <c r="N22">
-        <v>0.9625774824330779</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.002365307000317</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.024319206181383</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9319003937499512</v>
+        <v>0.9666366301368383</v>
       </c>
       <c r="D23">
-        <v>0.965560346921166</v>
+        <v>0.9941569505745124</v>
       </c>
       <c r="E23">
-        <v>0.9451144484838624</v>
+        <v>0.9791502375885244</v>
       </c>
       <c r="F23">
-        <v>0.9420145515065891</v>
+        <v>1.005821283042799</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.019470357647555</v>
+        <v>1.036430038654367</v>
       </c>
       <c r="J23">
-        <v>0.9652070645979987</v>
+        <v>0.998216241861249</v>
       </c>
       <c r="K23">
-        <v>0.9815169224812571</v>
+        <v>1.00952953647998</v>
       </c>
       <c r="L23">
-        <v>0.9615174588141621</v>
+        <v>0.9948236760638568</v>
       </c>
       <c r="M23">
-        <v>0.9584875056355496</v>
+        <v>1.020968134362829</v>
       </c>
       <c r="N23">
-        <v>0.9665777693405255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.002851320264866</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.025167095621923</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9504164276063503</v>
+        <v>0.9750982107801561</v>
       </c>
       <c r="D24">
-        <v>0.979875173701393</v>
+        <v>1.000156919341602</v>
       </c>
       <c r="E24">
-        <v>0.961110389733307</v>
+        <v>0.9858776397311819</v>
       </c>
       <c r="F24">
-        <v>0.9604475028971021</v>
+        <v>1.01124809960906</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026581247783753</v>
+        <v>1.038915719098579</v>
       </c>
       <c r="J24">
-        <v>0.9799664426183865</v>
+        <v>1.003589717673865</v>
       </c>
       <c r="K24">
-        <v>0.9942651679315817</v>
+        <v>1.014181279860744</v>
       </c>
       <c r="L24">
-        <v>0.9758566959605112</v>
+        <v>1.000157383388071</v>
       </c>
       <c r="M24">
-        <v>0.9752067302239839</v>
+        <v>1.025080523980754</v>
       </c>
       <c r="N24">
-        <v>0.9813581073706265</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.004710747132487</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.028421839751576</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9698681190941448</v>
+        <v>0.9844696386146894</v>
       </c>
       <c r="D25">
-        <v>0.9949599882374198</v>
+        <v>1.006816629023962</v>
       </c>
       <c r="E25">
-        <v>0.9779411408501208</v>
+        <v>0.993365173959899</v>
       </c>
       <c r="F25">
-        <v>0.9798661612120034</v>
+        <v>1.017314984158984</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03398632354799</v>
+        <v>1.041608721868041</v>
       </c>
       <c r="J25">
-        <v>0.9954539046887788</v>
+        <v>1.009531208440817</v>
       </c>
       <c r="K25">
-        <v>1.007637051013383</v>
+        <v>1.019310039267128</v>
       </c>
       <c r="L25">
-        <v>0.9908918246731481</v>
+        <v>1.006067367697926</v>
       </c>
       <c r="M25">
-        <v>0.9927852826874037</v>
+        <v>1.029650324673591</v>
       </c>
       <c r="N25">
-        <v>0.9968675634135956</v>
+        <v>1.006764831529689</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.032038583125069</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_56/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9916202054519134</v>
+        <v>0.9930127805712101</v>
       </c>
       <c r="D2">
-        <v>1.011905899218138</v>
+        <v>1.013066698976848</v>
       </c>
       <c r="E2">
-        <v>0.9991046960875285</v>
+        <v>1.000338859209667</v>
       </c>
       <c r="F2">
-        <v>1.021984679308444</v>
+        <v>1.022575835960462</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.043612748395586</v>
+        <v>1.044200331599398</v>
       </c>
       <c r="J2">
-        <v>1.014054476539788</v>
+        <v>1.015404505711148</v>
       </c>
       <c r="K2">
-        <v>1.023201820909684</v>
+        <v>1.024346946633521</v>
       </c>
       <c r="L2">
-        <v>1.010576518023669</v>
+        <v>1.01179347520268</v>
       </c>
       <c r="M2">
-        <v>1.033145998935426</v>
+        <v>1.03372936399705</v>
       </c>
       <c r="N2">
-        <v>1.008326787346352</v>
+        <v>1.01111635459251</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.03480520245177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.035266900319587</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.018581147084562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9966406001566593</v>
+        <v>0.997635914438801</v>
       </c>
       <c r="D3">
-        <v>1.015481819071752</v>
+        <v>1.016202363613325</v>
       </c>
       <c r="E3">
-        <v>1.003148344235788</v>
+        <v>1.004034988386173</v>
       </c>
       <c r="F3">
-        <v>1.025284648732162</v>
+        <v>1.025696096198153</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.044989052884441</v>
+        <v>1.04535598164309</v>
       </c>
       <c r="J3">
-        <v>1.017223266638899</v>
+        <v>1.018191234942242</v>
       </c>
       <c r="K3">
-        <v>1.025920366507146</v>
+        <v>1.026632045954617</v>
       </c>
       <c r="L3">
-        <v>1.013741099285251</v>
+        <v>1.014616499813481</v>
       </c>
       <c r="M3">
-        <v>1.035603914905914</v>
+        <v>1.036010417733376</v>
       </c>
       <c r="N3">
-        <v>1.009419821836324</v>
+        <v>1.01187691511079</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.036750491000091</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037072212345097</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019089374921065</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9998146659929968</v>
+        <v>1.0005627034572</v>
       </c>
       <c r="D4">
-        <v>1.01774337662</v>
+        <v>1.018188170361197</v>
       </c>
       <c r="E4">
-        <v>1.005710933394051</v>
+        <v>1.006380945129894</v>
       </c>
       <c r="F4">
-        <v>1.027380280098311</v>
+        <v>1.027679792068167</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.045844551423319</v>
+        <v>1.046073060563212</v>
       </c>
       <c r="J4">
-        <v>1.019223113821816</v>
+        <v>1.019952026167407</v>
       </c>
       <c r="K4">
-        <v>1.027632269309209</v>
+        <v>1.02807192639415</v>
       </c>
       <c r="L4">
-        <v>1.015740917699924</v>
+        <v>1.016402963010297</v>
       </c>
       <c r="M4">
-        <v>1.037159109233015</v>
+        <v>1.037455241218574</v>
       </c>
       <c r="N4">
-        <v>1.010109043049526</v>
+        <v>1.012357207853442</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.037981328420114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038215697815891</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.019406787992696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001131897718072</v>
+        <v>1.001778184674237</v>
       </c>
       <c r="D5">
-        <v>1.018682019962256</v>
+        <v>1.019012963552845</v>
       </c>
       <c r="E5">
-        <v>1.006775801488857</v>
+        <v>1.007356608519505</v>
       </c>
       <c r="F5">
-        <v>1.028252103450841</v>
+        <v>1.02850553863084</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046196002517042</v>
+        <v>1.046367310896164</v>
       </c>
       <c r="J5">
-        <v>1.020052141421363</v>
+        <v>1.02068241070183</v>
       </c>
       <c r="K5">
-        <v>1.028340997366963</v>
+        <v>1.028668222506759</v>
       </c>
       <c r="L5">
-        <v>1.016570564500893</v>
+        <v>1.017144655674243</v>
       </c>
       <c r="M5">
-        <v>1.037804739517296</v>
+        <v>1.038055391608109</v>
       </c>
       <c r="N5">
-        <v>1.010394605532537</v>
+        <v>1.012556368035203</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.038492303112905</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.038690677964131</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.01953755102106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001352080401379</v>
+        <v>1.001981408513175</v>
       </c>
       <c r="D6">
-        <v>1.018838923240857</v>
+        <v>1.019150869569078</v>
       </c>
       <c r="E6">
-        <v>1.006953880825643</v>
+        <v>1.007519816617596</v>
       </c>
       <c r="F6">
-        <v>1.028397957019652</v>
+        <v>1.028643711553828</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046254537241848</v>
+        <v>1.046416298000349</v>
       </c>
       <c r="J6">
-        <v>1.020190663418126</v>
+        <v>1.020804476204487</v>
       </c>
       <c r="K6">
-        <v>1.028459362964228</v>
+        <v>1.028767820573308</v>
       </c>
       <c r="L6">
-        <v>1.01670922710076</v>
+        <v>1.017268649882808</v>
       </c>
       <c r="M6">
-        <v>1.037912671795882</v>
+        <v>1.038155740045468</v>
       </c>
       <c r="N6">
-        <v>1.010442311011013</v>
+        <v>1.012589648603133</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.038577724508461</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.038770097219744</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.019559351456033</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9998323334037519</v>
+        <v>1.000591038153827</v>
       </c>
       <c r="D7">
-        <v>1.017755965902064</v>
+        <v>1.018208259824846</v>
       </c>
       <c r="E7">
-        <v>1.005725210514413</v>
+        <v>1.006405164483964</v>
       </c>
       <c r="F7">
-        <v>1.0273919651076</v>
+        <v>1.027696079445475</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.045849279503605</v>
+        <v>1.046081678832456</v>
       </c>
       <c r="J7">
-        <v>1.019234236821865</v>
+        <v>1.019973552030443</v>
       </c>
       <c r="K7">
-        <v>1.02764178198218</v>
+        <v>1.028088854587936</v>
       </c>
       <c r="L7">
-        <v>1.015752046510788</v>
+        <v>1.016423918938508</v>
       </c>
       <c r="M7">
-        <v>1.037167767953079</v>
+        <v>1.037468451629203</v>
       </c>
       <c r="N7">
-        <v>1.010112875025845</v>
+        <v>1.01238986074847</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.037988181240517</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038226153003367</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.019411454744608</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9933327126903989</v>
+        <v>0.994626188807485</v>
       </c>
       <c r="D8">
-        <v>1.013125478873679</v>
+        <v>1.014163579136465</v>
       </c>
       <c r="E8">
-        <v>1.000482718534891</v>
+        <v>1.001632285212069</v>
       </c>
       <c r="F8">
-        <v>1.023108329260249</v>
+        <v>1.023654036413621</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.044085256992081</v>
+        <v>1.044611788126335</v>
       </c>
       <c r="J8">
-        <v>1.01513610254327</v>
+        <v>1.016391430659402</v>
       </c>
       <c r="K8">
-        <v>1.02413054461725</v>
+        <v>1.025155053598847</v>
       </c>
       <c r="L8">
-        <v>1.011656155059087</v>
+        <v>1.01279019146192</v>
       </c>
       <c r="M8">
-        <v>1.033984123293949</v>
+        <v>1.034522854707252</v>
       </c>
       <c r="N8">
-        <v>1.008700002889812</v>
+        <v>1.011467428304851</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.035468526671123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.035894899339236</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.018764411098631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9812765136809479</v>
+        <v>0.9835554341527415</v>
       </c>
       <c r="D9">
-        <v>1.004545981873798</v>
+        <v>1.006662652126141</v>
       </c>
       <c r="E9">
-        <v>0.9908095753032454</v>
+        <v>0.9928192067440315</v>
       </c>
       <c r="F9">
-        <v>1.015241094592909</v>
+        <v>1.016232081977226</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.04069898701871</v>
+        <v>1.041764858072256</v>
       </c>
       <c r="J9">
-        <v>1.007508224158239</v>
+        <v>1.009702562406608</v>
       </c>
       <c r="K9">
-        <v>1.017565731769701</v>
+        <v>1.019648549479375</v>
       </c>
       <c r="L9">
-        <v>1.004053541648521</v>
+        <v>1.006029871686626</v>
       </c>
       <c r="M9">
-        <v>1.028091642342946</v>
+        <v>1.02906718224607</v>
       </c>
       <c r="N9">
-        <v>1.006065716571765</v>
+        <v>1.009650897030379</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.030804974768925</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.031577059337294</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.017524312039693</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9728870880361737</v>
+        <v>0.9759265863898493</v>
       </c>
       <c r="D10">
-        <v>0.9985957342951435</v>
+        <v>1.001516185770635</v>
       </c>
       <c r="E10">
-        <v>0.9841308481510571</v>
+        <v>0.9868029548040003</v>
       </c>
       <c r="F10">
-        <v>1.009997465400414</v>
+        <v>1.011330581397411</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.038298448520369</v>
+        <v>1.039765626353967</v>
       </c>
       <c r="J10">
-        <v>1.002219310131699</v>
+        <v>1.005128993382804</v>
       </c>
       <c r="K10">
-        <v>1.012990389565929</v>
+        <v>1.01585811886986</v>
       </c>
       <c r="L10">
-        <v>0.998792660724666</v>
+        <v>1.001414645436465</v>
       </c>
       <c r="M10">
-        <v>1.024188528564266</v>
+        <v>1.025498228508002</v>
       </c>
       <c r="N10">
-        <v>1.004251998811031</v>
+        <v>1.008533339618431</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.027767988415952</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.028804479824664</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.016667420057935</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9699340245912336</v>
+        <v>0.9732718749721688</v>
       </c>
       <c r="D11">
-        <v>0.9965614336337073</v>
+        <v>0.9997861759462102</v>
       </c>
       <c r="E11">
-        <v>0.9819039113713207</v>
+        <v>0.9848260840518772</v>
       </c>
       <c r="F11">
-        <v>1.009528669779256</v>
+        <v>1.010992462506011</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.037654482062478</v>
+        <v>1.039274303837274</v>
       </c>
       <c r="J11">
-        <v>1.000613371851658</v>
+        <v>1.003800455394658</v>
       </c>
       <c r="K11">
-        <v>1.011548488929056</v>
+        <v>1.01471212580249</v>
       </c>
       <c r="L11">
-        <v>0.9971753571860857</v>
+        <v>1.000039946004872</v>
       </c>
       <c r="M11">
-        <v>1.024273099091766</v>
+        <v>1.025710012364367</v>
       </c>
       <c r="N11">
-        <v>1.003832414927523</v>
+        <v>1.008493679746129</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.028276323588979</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.029412905598273</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.016465625683239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9690683260912948</v>
+        <v>0.9724821290249177</v>
       </c>
       <c r="D12">
-        <v>0.995979759819842</v>
+        <v>0.9992853377951317</v>
       </c>
       <c r="E12">
-        <v>0.9813042665298404</v>
+        <v>0.984282410868248</v>
       </c>
       <c r="F12">
-        <v>1.00997038721602</v>
+        <v>1.011466493629583</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.037544790970963</v>
+        <v>1.039205238770965</v>
       </c>
       <c r="J12">
-        <v>1.000242015435783</v>
+        <v>1.003498544313369</v>
       </c>
       <c r="K12">
-        <v>1.011184388728539</v>
+        <v>1.01442624242459</v>
       </c>
       <c r="L12">
-        <v>0.9967986317126527</v>
+        <v>0.9997170599413371</v>
       </c>
       <c r="M12">
-        <v>1.024909031181852</v>
+        <v>1.026377262221811</v>
       </c>
       <c r="N12">
-        <v>1.003810862992579</v>
+        <v>1.008582669404043</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.029109035811997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.03026998903506</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.016439915174577</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9697584811432849</v>
+        <v>0.9730643944703449</v>
       </c>
       <c r="D13">
-        <v>0.9964825674782488</v>
+        <v>0.9996892152225892</v>
       </c>
       <c r="E13">
-        <v>0.9819190109791723</v>
+        <v>0.9847924200815167</v>
       </c>
       <c r="F13">
-        <v>1.011164244043538</v>
+        <v>1.012611956222696</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.037847744144784</v>
+        <v>1.039458783866662</v>
       </c>
       <c r="J13">
-        <v>1.000802712872067</v>
+        <v>1.003957169411054</v>
       </c>
       <c r="K13">
-        <v>1.011633206050202</v>
+        <v>1.014778317867321</v>
       </c>
       <c r="L13">
-        <v>0.9973557808534619</v>
+        <v>1.000171854958279</v>
       </c>
       <c r="M13">
-        <v>1.026037308950787</v>
+        <v>1.027458218783622</v>
       </c>
       <c r="N13">
-        <v>1.004095577164374</v>
+        <v>1.008739493016001</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.030280136411082</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03140338557692</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.016547928471228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.970933223639196</v>
+        <v>0.97408452811194</v>
       </c>
       <c r="D14">
-        <v>0.9973151736614523</v>
+        <v>1.000374991177553</v>
       </c>
       <c r="E14">
-        <v>0.9828875320327619</v>
+        <v>0.9856192685236369</v>
       </c>
       <c r="F14">
-        <v>1.012322391518538</v>
+        <v>1.013701811275491</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.038239213537158</v>
+        <v>1.039776851943644</v>
       </c>
       <c r="J14">
-        <v>1.001604746395796</v>
+        <v>1.004613885524546</v>
       </c>
       <c r="K14">
-        <v>1.012304935702662</v>
+        <v>1.01530679875958</v>
       </c>
       <c r="L14">
-        <v>0.99815694791016</v>
+        <v>1.000834909929739</v>
       </c>
       <c r="M14">
-        <v>1.027032276951564</v>
+        <v>1.028386512474527</v>
       </c>
       <c r="N14">
-        <v>1.004428265145201</v>
+        <v>1.008878945472849</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.031241141494709</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.032311537881339</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.016682422001616</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9715695757914032</v>
+        <v>0.974642998135097</v>
       </c>
       <c r="D15">
-        <v>0.9977649099648359</v>
+        <v>1.000749248666664</v>
       </c>
       <c r="E15">
-        <v>0.9833988503899252</v>
+        <v>0.9860611910355587</v>
       </c>
       <c r="F15">
-        <v>1.012803109941341</v>
+        <v>1.014148165596737</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.038432655521936</v>
+        <v>1.039932552555612</v>
       </c>
       <c r="J15">
-        <v>1.002016282804098</v>
+        <v>1.004952338950903</v>
       </c>
       <c r="K15">
-        <v>1.012656937475739</v>
+        <v>1.015585199964399</v>
       </c>
       <c r="L15">
-        <v>0.9985670692299486</v>
+        <v>1.00117742904688</v>
       </c>
       <c r="M15">
-        <v>1.027416941608151</v>
+        <v>1.028737637365952</v>
       </c>
       <c r="N15">
-        <v>1.004581129106607</v>
+        <v>1.008934801567725</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.031582938965682</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.03262679772512</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.016748041968318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9749966609020324</v>
+        <v>0.977686511096548</v>
       </c>
       <c r="D16">
-        <v>1.000193392150964</v>
+        <v>1.002795125118704</v>
       </c>
       <c r="E16">
-        <v>0.9861044152332187</v>
+        <v>0.9884333801360274</v>
       </c>
       <c r="F16">
-        <v>1.014844247206155</v>
+        <v>1.016019285516303</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.039412094653297</v>
+        <v>1.040720634732053</v>
       </c>
       <c r="J16">
-        <v>1.004158572205931</v>
+        <v>1.006734556749298</v>
       </c>
       <c r="K16">
-        <v>1.014522488240036</v>
+        <v>1.017077565497248</v>
       </c>
       <c r="L16">
-        <v>1.000691743837712</v>
+        <v>1.002977359506222</v>
       </c>
       <c r="M16">
-        <v>1.028914652390482</v>
+        <v>1.030069361020826</v>
       </c>
       <c r="N16">
-        <v>1.005296007886895</v>
+        <v>1.009192524494453</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.032727774224823</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.033640465745605</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.017079617049469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9770145021033507</v>
+        <v>0.9795039223060945</v>
       </c>
       <c r="D17">
-        <v>1.001624420657172</v>
+        <v>1.004018510599991</v>
       </c>
       <c r="E17">
-        <v>0.9876787208477706</v>
+        <v>0.9898369468624965</v>
       </c>
       <c r="F17">
-        <v>1.015802054978802</v>
+        <v>1.016887685565468</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.039957407018939</v>
+        <v>1.041162062120445</v>
       </c>
       <c r="J17">
-        <v>1.005385564082285</v>
+        <v>1.007773176046006</v>
       </c>
       <c r="K17">
-        <v>1.01560402771777</v>
+        <v>1.017956445736332</v>
       </c>
       <c r="L17">
-        <v>1.001906291664019</v>
+        <v>1.004025549069789</v>
       </c>
       <c r="M17">
-        <v>1.029538575942272</v>
+        <v>1.030605952809847</v>
       </c>
       <c r="N17">
-        <v>1.005671524082994</v>
+        <v>1.009348584265585</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.033091110647365</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.033934859349873</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.017265588027247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9779777830982257</v>
+        <v>0.9803931044572001</v>
       </c>
       <c r="D18">
-        <v>1.002299883237533</v>
+        <v>1.004609921420884</v>
       </c>
       <c r="E18">
-        <v>0.9883929283554467</v>
+        <v>0.9904933709009243</v>
       </c>
       <c r="F18">
-        <v>1.015801237499747</v>
+        <v>1.016853382312227</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04015701983784</v>
+        <v>1.041319506204055</v>
       </c>
       <c r="J18">
-        <v>1.005899379370078</v>
+        <v>1.008217863268941</v>
       </c>
       <c r="K18">
-        <v>1.016079035440602</v>
+        <v>1.018349553249061</v>
       </c>
       <c r="L18">
-        <v>1.002415068626671</v>
+        <v>1.004478243967496</v>
       </c>
       <c r="M18">
-        <v>1.029352683430988</v>
+        <v>1.030387410228599</v>
       </c>
       <c r="N18">
-        <v>1.005772578180394</v>
+        <v>1.00937910564982</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.032704781595528</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.033522893404342</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.017330751095013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9779308452161548</v>
+        <v>0.9803851716505645</v>
       </c>
       <c r="D19">
-        <v>1.002241295361325</v>
+        <v>1.004581092403587</v>
       </c>
       <c r="E19">
-        <v>0.9882799686239692</v>
+        <v>0.9904235968402527</v>
       </c>
       <c r="F19">
-        <v>1.014853766057796</v>
+        <v>1.015923256204783</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.040013874073435</v>
+        <v>1.041190998361867</v>
       </c>
       <c r="J19">
-        <v>1.005714654793241</v>
+        <v>1.00807115101114</v>
       </c>
       <c r="K19">
-        <v>1.015957116584729</v>
+        <v>1.018257094367975</v>
       </c>
       <c r="L19">
-        <v>1.00223847058489</v>
+        <v>1.00434426116953</v>
       </c>
       <c r="M19">
-        <v>1.02835774133737</v>
+        <v>1.029409579006332</v>
       </c>
       <c r="N19">
-        <v>1.005610928610924</v>
+        <v>1.009264914127667</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.031589768972855</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.032421685671684</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.017274096667447</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9750725243092467</v>
+        <v>0.9778771673278828</v>
       </c>
       <c r="D20">
-        <v>1.000144991152008</v>
+        <v>1.002828506646166</v>
       </c>
       <c r="E20">
-        <v>0.9858681779601496</v>
+        <v>0.988333729334025</v>
       </c>
       <c r="F20">
-        <v>1.011367029031092</v>
+        <v>1.012594932269622</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.03893010471016</v>
+        <v>1.040278701864981</v>
       </c>
       <c r="J20">
-        <v>1.003599368723909</v>
+        <v>1.006288353700752</v>
       </c>
       <c r="K20">
-        <v>1.014185291544273</v>
+        <v>1.016821801846516</v>
       </c>
       <c r="L20">
-        <v>1.000164154896393</v>
+        <v>1.002584865567392</v>
       </c>
       <c r="M20">
-        <v>1.025212904961698</v>
+        <v>1.026419872253922</v>
       </c>
       <c r="N20">
-        <v>1.004726044705848</v>
+        <v>1.008745010256969</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.028567998357779</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.02952319906248</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.016883855885929</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9685741980054362</v>
+        <v>0.9721597673572379</v>
       </c>
       <c r="D21">
-        <v>0.9955295884471073</v>
+        <v>0.9989804008105887</v>
       </c>
       <c r="E21">
-        <v>0.9806879439182242</v>
+        <v>0.9838465631041725</v>
       </c>
       <c r="F21">
-        <v>1.007059686260298</v>
+        <v>1.008637586918648</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.037003251559471</v>
+        <v>1.038736334479905</v>
       </c>
       <c r="J21">
-        <v>0.9994472225793367</v>
+        <v>1.002869422548127</v>
       </c>
       <c r="K21">
-        <v>1.010596151994992</v>
+        <v>1.013981115592189</v>
       </c>
       <c r="L21">
-        <v>0.9960446645057086</v>
+        <v>0.9991405687490291</v>
       </c>
       <c r="M21">
-        <v>1.021908533796732</v>
+        <v>1.023457144750509</v>
       </c>
       <c r="N21">
-        <v>1.003277401194507</v>
+        <v>1.008242210786942</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.025911374601563</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.027137020724</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.016240364089455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9644273221956611</v>
+        <v>0.9685142082349831</v>
       </c>
       <c r="D22">
-        <v>0.9925927873778254</v>
+        <v>0.996535056362694</v>
       </c>
       <c r="E22">
-        <v>0.9773988679330972</v>
+        <v>0.9810015244717056</v>
       </c>
       <c r="F22">
-        <v>1.004412271182093</v>
+        <v>1.006215018986017</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.035773732591057</v>
+        <v>1.03775277417525</v>
       </c>
       <c r="J22">
-        <v>0.9968123159712794</v>
+        <v>1.000701361902741</v>
       </c>
       <c r="K22">
-        <v>1.008312424732213</v>
+        <v>1.012175468392271</v>
       </c>
       <c r="L22">
-        <v>0.9934317589777584</v>
+        <v>0.996958979523125</v>
       </c>
       <c r="M22">
-        <v>1.019896823953903</v>
+        <v>1.021664352447796</v>
       </c>
       <c r="N22">
-        <v>1.002365307000317</v>
+        <v>1.007922874724621</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.024319206181383</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.025718117390529</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.015832459186748</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9666366301368383</v>
+        <v>0.9704355039880201</v>
       </c>
       <c r="D23">
-        <v>0.9941569505745124</v>
+        <v>0.9978214250776292</v>
       </c>
       <c r="E23">
-        <v>0.9791502375885244</v>
+        <v>0.9824965639800248</v>
       </c>
       <c r="F23">
-        <v>1.005821283042799</v>
+        <v>1.007494942161471</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.036430038654367</v>
+        <v>1.038269870321933</v>
       </c>
       <c r="J23">
-        <v>0.998216241861249</v>
+        <v>1.00183699243876</v>
       </c>
       <c r="K23">
-        <v>1.00952953647998</v>
+        <v>1.0131223484931</v>
       </c>
       <c r="L23">
-        <v>0.9948236760638568</v>
+        <v>0.9981018668142488</v>
       </c>
       <c r="M23">
-        <v>1.020968134362829</v>
+        <v>1.022609964537165</v>
       </c>
       <c r="N23">
-        <v>1.002851320264866</v>
+        <v>1.008046434720779</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.025167095621923</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.026466521319362</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.016044771843825</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9750982107801561</v>
+        <v>0.977905374456686</v>
       </c>
       <c r="D24">
-        <v>1.000156919341602</v>
+        <v>1.00284182322468</v>
       </c>
       <c r="E24">
-        <v>0.9858776397311819</v>
+        <v>0.9883465645816346</v>
       </c>
       <c r="F24">
-        <v>1.01124809960906</v>
+        <v>1.012477343492303</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.038915719098579</v>
+        <v>1.040264981161364</v>
       </c>
       <c r="J24">
-        <v>1.003589717673865</v>
+        <v>1.006281292091559</v>
       </c>
       <c r="K24">
-        <v>1.014181279860744</v>
+        <v>1.016819216382381</v>
       </c>
       <c r="L24">
-        <v>1.000157383388071</v>
+        <v>1.002581465624204</v>
       </c>
       <c r="M24">
-        <v>1.025080523980754</v>
+        <v>1.0262888296708</v>
       </c>
       <c r="N24">
-        <v>1.004710747132487</v>
+        <v>1.008731435321544</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.028421839751576</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.029378148412448</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.016877869821267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9844696386146894</v>
+        <v>0.9864682712786159</v>
       </c>
       <c r="D25">
-        <v>1.006816629023962</v>
+        <v>1.008633549597139</v>
       </c>
       <c r="E25">
-        <v>0.993365173959899</v>
+        <v>0.9951297650383212</v>
       </c>
       <c r="F25">
-        <v>1.017314984158984</v>
+        <v>1.018179627496226</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.041608721868041</v>
+        <v>1.042524746515249</v>
       </c>
       <c r="J25">
-        <v>1.009531208440817</v>
+        <v>1.011459774153433</v>
       </c>
       <c r="K25">
-        <v>1.019310039267128</v>
+        <v>1.021099303077959</v>
       </c>
       <c r="L25">
-        <v>1.006067367697926</v>
+        <v>1.007804158554538</v>
       </c>
       <c r="M25">
-        <v>1.029650324673591</v>
+        <v>1.03050213408166</v>
       </c>
       <c r="N25">
-        <v>1.006764831529689</v>
+        <v>1.010096576412434</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.032038583125069</v>
+        <v>1.03271274087204</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.017852417865095</v>
       </c>
     </row>
   </sheetData>
